--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28160" yWindow="4720" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="69120" yWindow="4740" windowWidth="28160" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务合同会签" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>会签完毕后业务部凭会签单盖合同章。</t>
   </si>
@@ -47,9 +47,6 @@
     <t>总裁</t>
   </si>
   <si>
-    <t>财务负责人</t>
-  </si>
-  <si>
     <t>法务负责人</t>
   </si>
   <si>
@@ -62,37 +59,13 @@
     <t>情况说明</t>
   </si>
   <si>
-    <t>预估毛利润率</t>
-  </si>
-  <si>
-    <t>结算周期</t>
-  </si>
-  <si>
     <t>结算方式</t>
   </si>
   <si>
-    <t>销售价格</t>
-  </si>
-  <si>
     <t>采购价格</t>
   </si>
   <si>
-    <t>单吨利润</t>
-  </si>
-  <si>
-    <t>付款比例</t>
-  </si>
-  <si>
-    <t>合同吨位</t>
-  </si>
-  <si>
     <t>货物标的</t>
-  </si>
-  <si>
-    <t>下游需方</t>
-  </si>
-  <si>
-    <t>上游供方</t>
   </si>
   <si>
     <t>签订公司名称</t>
@@ -113,6 +86,80 @@
   </si>
   <si>
     <t>合同会签单</t>
+  </si>
+  <si>
+    <t>上游客户</t>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同数量</t>
+    <rPh sb="0" eb="1">
+      <t>he'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估毛利率</t>
+    <rPh sb="0" eb="1">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mao'li'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务会计</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuai'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务负责人</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下游客户（非必填）</t>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei'bi'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价格（非必填）</t>
+    <rPh sb="5" eb="6">
+      <t>fei'bi'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单吨利润</t>
+    <rPh sb="0" eb="1">
+      <t>dan'dun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -183,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,13 +253,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,35 +306,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,218 +640,218 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -754,34 +862,33 @@
       <c r="F20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -135,23 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下游客户（非必填）</t>
-    <rPh sb="2" eb="3">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fei'bi'tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售价格（非必填）</t>
-    <rPh sb="5" eb="6">
-      <t>fei'bi'tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单吨利润</t>
     <rPh sb="0" eb="1">
       <t>dan'dun</t>
@@ -159,6 +142,17 @@
     <rPh sb="2" eb="3">
       <t>li'run</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下游客户</t>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,50 +309,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +634,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -652,206 +646,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -863,20 +857,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A16:A19"/>
@@ -889,6 +869,20 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -27,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>会签完毕后业务部凭会签单盖合同章。</t>
-  </si>
-  <si>
-    <t>其他类金融业务（保理、咨询服务、代理、高收益投资等）审批流程：业务经办人→业务负责人→法务负责人→财务负责人→总裁→留档。</t>
-  </si>
-  <si>
-    <t>大宗业务和供应链业务审批流程：业务经办人→业务负责人→财务负责人→总裁→留档；</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>备注</t>
   </si>
@@ -224,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -284,13 +275,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +383,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -321,9 +410,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,25 +419,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,206 +738,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -856,23 +942,8 @@
       <c r="F20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
+  <mergeCells count="23">
+    <mergeCell ref="B16:F19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -883,6 +954,18 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -383,67 +383,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="173" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -738,200 +738,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -943,6 +943,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:F19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:F1"/>
@@ -959,13 +966,6 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="69120" yWindow="4740" windowWidth="28160" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="10240" yWindow="2880" windowWidth="28160" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务合同会签" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">业务合同会签!$A$1:$F$19</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -723,10 +726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -968,6 +974,8 @@
     <mergeCell ref="B14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="28" scale="79" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -386,6 +386,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -411,9 +429,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -432,21 +447,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,200 +744,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -949,13 +949,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:F19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:F1"/>
@@ -972,6 +965,13 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>备注</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>销售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗业务和供应链业务审批流程：业务经办人→业务负责人→财务负责人→总裁→留档；
+其他类金融业务（保理、咨询服务、代理、高收益投资等）审批流程：业务经办人→业务负责人→法务负责人→财务负责人→总裁→留档。
+会签完毕后业务部凭会签单盖合同章。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,48 +393,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,6 +412,48 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,200 +750,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -949,6 +957,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:F19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:F1"/>
@@ -965,13 +980,6 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/biz_contract.xlsx
+++ b/xlsx-templates/biz_contract.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="2880" windowWidth="28160" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="5440" yWindow="460" windowWidth="28160" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务合同会签" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合同会签单</t>
-  </si>
-  <si>
     <t>上游客户</t>
     <rPh sb="2" eb="3">
       <t>ke'hu</t>
@@ -153,6 +150,10 @@
     <t>大宗业务和供应链业务审批流程：业务经办人→业务负责人→财务负责人→总裁→留档；
 其他类金融业务（保理、咨询服务、代理、高收益投资等）审批流程：业务经办人→业务负责人→法务负责人→财务负责人→总裁→留档。
 会签完毕后业务部凭会签单盖合同章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同会签单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +394,49 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,48 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,202 +751,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -957,13 +958,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:F19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:F1"/>
@@ -980,10 +974,17 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="28" scale="79" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>